--- a/Other files/InchSizeCalculator.xlsx
+++ b/Other files/InchSizeCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\GitHub\Tesla-Mini\Other files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtihasselt-my.sharepoint.com/personal/nathan_bollaert_leerling_campushast_be/Documents/Documenten/GitHub/Tesla-Mini/Other files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B65ADC-E2E7-4F37-A712-73F143B80ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{E1B65ADC-E2E7-4F37-A712-73F143B80ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1885EEFC-6F09-4902-8628-5E0C2F06140A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -177,11 +183,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -189,63 +221,63 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -255,116 +287,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -373,88 +295,56 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -464,74 +354,102 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,7 +465,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,127 +761,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="143" zoomScaleNormal="221" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-    <col min="8" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="8" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="23" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>6.25E-2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="12">
         <v>79.8</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="2">
         <f>B3*2.54*10</f>
         <v>2026.92</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="16">
         <f>C3*$A$3</f>
         <v>126.6825</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="17">
         <v>130</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="34">
         <f>IFERROR(ROUND(J3/TAN(RADIANS(L3)),0), 0)</f>
         <v>416</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="40">
         <f>IFERROR(H3/1000*16, "")</f>
         <v>6.6559999999999997</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="41">
         <v>240</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="37">
         <f>IFERROR(J3/1000*16, "")</f>
         <v>3.84</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="12">
         <v>36</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="2">
         <f>B4*2.54*10</f>
         <v>914.4</v>
       </c>
@@ -971,69 +890,71 @@
         <f>C4*$A$3</f>
         <v>57.15</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="17">
         <v>60</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="35">
         <f>IFERROR(ROUND(J4/TAN(RADIANS(L4)),0), 0)</f>
         <v>260</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="42">
         <f t="shared" ref="I4:I11" si="0">IFERROR(H4/1000*16, "")</f>
         <v>4.16</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="17">
         <v>150</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="38">
         <f t="shared" ref="K4:K11" si="1">IFERROR(J4/1000*16, "")</f>
         <v>2.4</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="12">
         <v>231.7</v>
       </c>
-      <c r="C5" s="15">
-        <f t="shared" ref="C5:C16" si="2">B5*2.54*10</f>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C10" si="2">B5*2.54*10</f>
         <v>5885.18</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" ref="D5:D16" si="3">C5*$A$3</f>
+        <f t="shared" ref="D5:D10" si="3">C5*$A$3</f>
         <v>367.82375000000002</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="17">
         <v>370</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="35">
         <f>IFERROR(ROUND(J5/TAN(RADIANS(L5)),0), 0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="25">
+      <c r="J5" s="17"/>
+      <c r="K5" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="12">
         <v>44</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="2">
         <f t="shared" si="2"/>
         <v>1117.6000000000001</v>
       </c>
@@ -1041,32 +962,37 @@
         <f t="shared" si="3"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="17">
         <v>70</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="24">
+      <c r="H6" s="41">
+        <v>350</v>
+      </c>
+      <c r="I6" s="50">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="28">
+        <v>5.6</v>
+      </c>
+      <c r="J6" s="25">
         <f>IFERROR(ROUND(H6*TAN(RADIANS(L6)),0), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
+        <v>163</v>
+      </c>
+      <c r="K6" s="50">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+        <v>2.6080000000000001</v>
+      </c>
+      <c r="L6" s="41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="12">
         <v>37.799999999999997</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="2">
         <f t="shared" si="2"/>
         <v>960.12</v>
       </c>
@@ -1074,32 +1000,33 @@
         <f t="shared" si="3"/>
         <v>60.0075</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="17">
         <v>60</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="25">
+      <c r="H7" s="12"/>
+      <c r="I7" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="26">
         <f>IFERROR(ROUND(H7*TAN(RADIANS(L7)),0), 0)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12">
         <v>75</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="2">
         <f t="shared" si="2"/>
         <v>1905</v>
       </c>
@@ -1107,32 +1034,33 @@
         <f t="shared" si="3"/>
         <v>119.0625</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="17">
         <v>120</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="26">
+      <c r="H8" s="22"/>
+      <c r="I8" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="27">
         <f>IFERROR(ROUND(H8*TAN(RADIANS(L8)),0), 0)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12">
         <v>14</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="2">
         <f t="shared" si="2"/>
         <v>355.6</v>
       </c>
@@ -1140,34 +1068,35 @@
         <f t="shared" si="3"/>
         <v>22.225000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
         <v>22</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="36">
         <v>300</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="40">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="41">
         <v>175</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="37">
         <f t="shared" si="1"/>
         <v>2.8</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="31">
         <f>IFERROR(ROUND(DEGREES(TANH(J9/H9)),0), 0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1175,375 +1104,257 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="25">
+      <c r="E10" s="18"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="25">
+      <c r="J10" s="17"/>
+      <c r="K10" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="32">
         <f>IFERROR(ROUND(DEGREES(TANH(J10/H10)),0), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="26">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="26">
+      <c r="J11" s="18"/>
+      <c r="K11" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="33">
         <f>IFERROR(ROUND(DEGREES(TANH(J11/H11)),0), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13*1000</f>
+        <v>2000</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>C13*$A$3</f>
+        <v>125</v>
+      </c>
+      <c r="E13" s="17">
+        <v>130</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:C21" si="4">B14*1000</f>
+        <v>800</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <f>C14*$A$3</f>
+        <v>50</v>
+      </c>
+      <c r="E14" s="17">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="12">
         <v>4</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="13">
-        <f>B19*1000</f>
-        <v>2000</v>
-      </c>
-      <c r="D19" s="14">
-        <f>C19*$A$3</f>
-        <v>125</v>
-      </c>
-      <c r="E19" s="9">
-        <v>130</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C20" s="15">
-        <f t="shared" ref="C20:C32" si="4">B20*1000</f>
-        <v>800</v>
-      </c>
-      <c r="D20" s="16">
-        <f>C20*$A$3</f>
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>60</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
-        <v>4</v>
-      </c>
-      <c r="C21" s="15">
+      <c r="C15" s="2">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="D21" s="16">
-        <f t="shared" ref="D21:D32" si="5">C21*$A$3</f>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15:D21" si="5">C15*$A$3</f>
         <v>250</v>
       </c>
-      <c r="E21">
+      <c r="E15" s="17">
         <v>300</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12">
         <v>0.8</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C16" s="2">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D16" s="16">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="E22">
+      <c r="E16" s="17">
         <v>75</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="12">
         <v>0.8</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C17" s="2">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D17" s="16">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="E23">
+      <c r="E17" s="17">
         <v>75</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12">
         <v>1.7</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C18" s="2">
         <f t="shared" si="4"/>
         <v>1700</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D18" s="16">
         <f t="shared" si="5"/>
         <v>106.25</v>
       </c>
-      <c r="E24">
+      <c r="E18" s="17">
         <v>105</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="12">
         <v>0.3</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C19" s="2">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D19" s="16">
         <f t="shared" si="5"/>
         <v>18.75</v>
       </c>
-      <c r="E25">
+      <c r="E19" s="17">
         <v>17</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="10">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12">
         <v>2.5</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C20" s="2">
         <f t="shared" si="4"/>
         <v>2500</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D20" s="16">
         <f t="shared" si="5"/>
         <v>156.25</v>
       </c>
-      <c r="E26">
-        <f>E21-(E22+E23)</f>
+      <c r="E20" s="17">
+        <f>E15-(E16+E17)</f>
         <v>150</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D21" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="21"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J6:J8" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>